--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -58,12 +58,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -73,39 +73,39 @@
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
@@ -115,25 +115,25 @@
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7568493150684932</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D3">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -610,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4708994708994709</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.375968992248062</v>
+        <v>0.3643410852713178</v>
       </c>
       <c r="C5">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D5">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8833333333333333</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,13 +710,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2214765100671141</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -786,13 +786,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8302872062663186</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -812,13 +812,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8301886792452831</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L9">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -864,13 +864,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -890,13 +890,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.795774647887324</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -916,13 +916,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -942,13 +942,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -968,13 +968,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7708333333333334</v>
+        <v>0.7625</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -994,13 +994,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7659574468085106</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1020,13 +1020,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.75625</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L17">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1046,13 +1046,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.7441860465116279</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1072,13 +1072,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1098,13 +1098,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1124,13 +1124,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1150,13 +1150,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.6088235294117647</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L22">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M22">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1176,13 +1176,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.574468085106383</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L23">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="M23">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1202,13 +1202,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5690376569037657</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L24">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>103</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1228,13 +1228,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5661016949152542</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L25">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="M25">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>128</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1254,13 +1254,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5285714285714286</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1280,7 +1280,7 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5230769230769231</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L27">
         <v>34</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1306,13 +1306,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.3932584269662922</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1332,13 +1332,13 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.3424657534246575</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
